--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\se-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D72EF672-C8F2-4EA5-9929-469760B976B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC4D74F-0D2D-483B-9442-A583713D6824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13275" yWindow="2160" windowWidth="12150" windowHeight="11880" xr2:uid="{51A2F36B-B56E-4DB6-9E73-4DAB676C1519}"/>
+    <workbookView xWindow="-5820" yWindow="2805" windowWidth="12150" windowHeight="11880" activeTab="1" xr2:uid="{51A2F36B-B56E-4DB6-9E73-4DAB676C1519}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="resources" sheetId="1" r:id="rId1"/>
+    <sheet name="communities" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>SE Latest Release Playlist</t>
   </si>
@@ -187,6 +188,72 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1_nK3-xW5fSVzBkAYEz7gXplVwQwlPfgS?fbclid=IwAR1eX19jb_Ay2-BXISZGZKUTeK8gLrKmWr5hx_kJOLM5XB_TkNSrSgV7258</t>
+  </si>
+  <si>
+    <t>logo_discord</t>
+  </si>
+  <si>
+    <t>logo_facebook</t>
+  </si>
+  <si>
+    <t>https://discord.gg/sKap3zM</t>
+  </si>
+  <si>
+    <t>Discord Server</t>
+  </si>
+  <si>
+    <t>Discord is a group chat application, and you are invited to join in the conversation!</t>
+  </si>
+  <si>
+    <t>Facebook SE Study Group</t>
+  </si>
+  <si>
+    <t>This group is for people to learn about and discuss SE.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/streetepistemology/</t>
+  </si>
+  <si>
+    <t>logo_reddit</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Join the subreddit for sharing the latest updates, ideas, and content related to SE.</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/StreetEpistemology/</t>
+  </si>
+  <si>
+    <t>Facebook Learn SE Group</t>
+  </si>
+  <si>
+    <t>This group is for helping people learn the principles, methods, and techniques of street epistemology.</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Follow the official Street Epistemology Twitter account for short updates.</t>
+  </si>
+  <si>
+    <t>logo_twitter</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Check out the official SE YouTube channel and other active channels!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/StreetEpistemologist/channels</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/learnstreetepistemology/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/StEpistemology</t>
   </si>
 </sst>
 </file>
@@ -540,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E0F15F-3494-4628-8D76-403E904B06C8}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,4 +930,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C07A414-2AB9-4D5C-97D9-9E67270455B7}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"{
+    logo: """ &amp; A1 &amp; """,
+    title: """ &amp; B1 &amp; """,
+    description: """ &amp; SUBSTITUTE(C1,"""","\""") &amp; """,
+    url: """ &amp; D1 &amp; """
+},"</f>
+        <v>{
+    logo: "logo_discord",
+    title: "Discord Server",
+    description: "Discord is a group chat application, and you are invited to join in the conversation!",
+    url: "https://discord.gg/sKap3zM"
+},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E6" si="0">"{
+    logo: """ &amp; A2 &amp; """,
+    title: """ &amp; B2 &amp; """,
+    description: """ &amp; SUBSTITUTE(C2,"""","\""") &amp; """,
+    url: """ &amp; D2 &amp; """
+},"</f>
+        <v>{
+    logo: "logo_facebook",
+    title: "Facebook SE Study Group",
+    description: "This group is for people to learn about and discuss SE.",
+    url: "https://www.facebook.com/groups/streetepistemology/"
+},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "logo_reddit",
+    title: "Reddit",
+    description: "Join the subreddit for sharing the latest updates, ideas, and content related to SE.",
+    url: "https://www.reddit.com/r/StreetEpistemology/"
+},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "logo_facebook",
+    title: "Facebook Learn SE Group",
+    description: "This group is for helping people learn the principles, methods, and techniques of street epistemology.",
+    url: "https://www.facebook.com/groups/learnstreetepistemology/"
+},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "logo_twitter",
+    title: "Twitter",
+    description: "Follow the official Street Epistemology Twitter account for short updates.",
+    url: "https://twitter.com/StEpistemology"
+},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "logo_youtube",
+    title: "YouTube",
+    description: "Check out the official SE YouTube channel and other active channels!",
+    url: "https://www.youtube.com/user/StreetEpistemologist/channels"
+},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\se-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC4D74F-0D2D-483B-9442-A583713D6824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DCBB00-3D2E-4388-9D6F-D715030E4BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5820" yWindow="2805" windowWidth="12150" windowHeight="11880" activeTab="1" xr2:uid="{51A2F36B-B56E-4DB6-9E73-4DAB676C1519}"/>
+    <workbookView xWindow="0" yWindow="2805" windowWidth="12150" windowHeight="11880" activeTab="1" xr2:uid="{51A2F36B-B56E-4DB6-9E73-4DAB676C1519}"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>SE Latest Release Playlist</t>
   </si>
@@ -254,6 +254,30 @@
   </si>
   <si>
     <t>https://twitter.com/StEpistemology</t>
+  </si>
+  <si>
+    <t>Facebook "Chat With a Street Epistemologist" Group</t>
+  </si>
+  <si>
+    <t>This group is for facilitating SE discussions over particular beliefs.</t>
+  </si>
+  <si>
+    <t>Facebook Critique SE Group</t>
+  </si>
+  <si>
+    <t>Public SE Facebook Page</t>
+  </si>
+  <si>
+    <t>This group is for raising and discussing any critiques of SE so that we can further learn about and improve the method.</t>
+  </si>
+  <si>
+    <t>A public page for believers and non-believers to discuss topics related to Street Epistemology.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/ChatWithAStreetEpistemologist/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/StreetEpistemology</t>
   </si>
 </sst>
 </file>
@@ -934,10 +958,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C07A414-2AB9-4D5C-97D9-9E67270455B7}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +1008,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E6" si="0">"{
+        <f t="shared" ref="E2:E9" si="0">"{
     logo: """ &amp; A2 &amp; """,
     title: """ &amp; B2 &amp; """,
     description: """ &amp; SUBSTITUTE(C2,"""","\""") &amp; """,
@@ -1090,6 +1114,75 @@
 },</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "logo_facebook",
+    title: "Facebook "Chat With a Street Epistemologist" Group",
+    description: "This group is for facilitating SE discussions over particular beliefs.",
+    url: "https://www.facebook.com/groups/ChatWithAStreetEpistemologist/"
+},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "logo_facebook",
+    title: "Facebook Critique SE Group",
+    description: "This group is for raising and discussing any critiques of SE so that we can further learn about and improve the method.",
+    url: "https://www.facebook.com/groups/ChatWithAStreetEpistemologist/"
+},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "logo_facebook",
+    title: "Public SE Facebook Page",
+    description: "A public page for believers and non-believers to discuss topics related to Street Epistemology.",
+    url: "https://www.facebook.com/StreetEpistemology"
+},</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\se-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DCBB00-3D2E-4388-9D6F-D715030E4BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C17410-3F05-4269-8F4A-0AAB2E2784B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2805" windowWidth="12150" windowHeight="11880" activeTab="1" xr2:uid="{51A2F36B-B56E-4DB6-9E73-4DAB676C1519}"/>
+    <workbookView xWindow="-6030" yWindow="5100" windowWidth="12150" windowHeight="11880" activeTab="2" xr2:uid="{51A2F36B-B56E-4DB6-9E73-4DAB676C1519}"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="1" r:id="rId1"/>
     <sheet name="communities" sheetId="2" r:id="rId2"/>
+    <sheet name="creators" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
   <si>
     <t>SE Latest Release Playlist</t>
   </si>
@@ -278,6 +279,102 @@
   </si>
   <si>
     <t>https://www.facebook.com/StreetEpistemology</t>
+  </si>
+  <si>
+    <t>deep_discussions</t>
+  </si>
+  <si>
+    <t>mortage_hill_musings</t>
+  </si>
+  <si>
+    <t>campefire_convos</t>
+  </si>
+  <si>
+    <t>abstract_activist</t>
+  </si>
+  <si>
+    <t>lets_chat</t>
+  </si>
+  <si>
+    <t>cordial_curiosity</t>
+  </si>
+  <si>
+    <t>anthony_magnabosco</t>
+  </si>
+  <si>
+    <t>street_knowledge</t>
+  </si>
+  <si>
+    <t>Anthony Magnabosco</t>
+  </si>
+  <si>
+    <t>Cordial Curiosity</t>
+  </si>
+  <si>
+    <t>Let's Chat</t>
+  </si>
+  <si>
+    <t>Deep Discussions</t>
+  </si>
+  <si>
+    <t>Street Knowledge</t>
+  </si>
+  <si>
+    <t>Abstract Activist SE</t>
+  </si>
+  <si>
+    <t>Campfire Convos</t>
+  </si>
+  <si>
+    <t>Mortgage Hill Musings</t>
+  </si>
+  <si>
+    <t>Hundreds of Street Epistemology examples on dozens of topics.</t>
+  </si>
+  <si>
+    <t>Reid Nicewonder practices cool-headed conversation instead of heated debate using Street Epistemology.</t>
+  </si>
+  <si>
+    <t>Tyrone strives to demonstrate that people can have productive chats about anything.</t>
+  </si>
+  <si>
+    <t>Eddie practices Street Epistemology in Tyler, Texas and focuses on teaching SE by demonstration and commentary.</t>
+  </si>
+  <si>
+    <t>Street Knowledge hits the streets to speak with people about how they know what they know.</t>
+  </si>
+  <si>
+    <t>Are we open minded to the idea that we might be close minded? What would it take to find out?</t>
+  </si>
+  <si>
+    <t>Blending Street Epistemology with the primitive tradition of sitting around a campfire. I sometimes allow Collaborators on Discord the opportunity to ask the questions!</t>
+  </si>
+  <si>
+    <t>Breakdowns of SE interviews / sermons, as well as lectures that highlight critical thinking skills implicit in the scientific method.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/magnabosco210</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCiWKxPMKUBFjN3Ny_VxpkYw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCtShJugohT2eaolubHnIuMg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCtftwuFFsiXLkzmpWPncd5w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCRzxNyqE-FHUq7DozWh8sgg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCaGAzPm0iExb4I4iq0TCXEw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCuFOqi7YRgy4HqU-JPNHkZQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCQU9GcG93HyDa4oV_TbO9vQ</t>
   </si>
 </sst>
 </file>
@@ -960,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C07A414-2AB9-4D5C-97D9-9E67270455B7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,4 +1284,217 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE7E2B4-BE40-42D0-ACCE-FD4980ACCEC4}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"{
+    logo: """ &amp; A1 &amp; """,
+    title: """ &amp; B1 &amp; """,
+    description: """ &amp; SUBSTITUTE(C1,"""","\""") &amp; """,
+    url: """ &amp; D1 &amp; """
+},"</f>
+        <v>{
+    logo: "anthony_magnabosco",
+    title: "Anthony Magnabosco",
+    description: "Hundreds of Street Epistemology examples on dozens of topics.",
+    url: "https://www.youtube.com/user/magnabosco210"
+},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E8" si="0">"{
+    logo: """ &amp; A2 &amp; """,
+    title: """ &amp; B2 &amp; """,
+    description: """ &amp; SUBSTITUTE(C2,"""","\""") &amp; """,
+    url: """ &amp; D2 &amp; """
+},"</f>
+        <v>{
+    logo: "cordial_curiosity",
+    title: "Cordial Curiosity",
+    description: "Reid Nicewonder practices cool-headed conversation instead of heated debate using Street Epistemology.",
+    url: "https://www.youtube.com/channel/UCiWKxPMKUBFjN3Ny_VxpkYw"
+},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "lets_chat",
+    title: "Let's Chat",
+    description: "Tyrone strives to demonstrate that people can have productive chats about anything.",
+    url: "https://www.youtube.com/channel/UCtShJugohT2eaolubHnIuMg"
+},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "deep_discussions",
+    title: "Deep Discussions",
+    description: "Eddie practices Street Epistemology in Tyler, Texas and focuses on teaching SE by demonstration and commentary.",
+    url: "https://www.youtube.com/channel/UCtftwuFFsiXLkzmpWPncd5w"
+},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "street_knowledge",
+    title: "Street Knowledge",
+    description: "Street Knowledge hits the streets to speak with people about how they know what they know.",
+    url: "https://www.youtube.com/channel/UCRzxNyqE-FHUq7DozWh8sgg"
+},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "abstract_activist",
+    title: "Abstract Activist SE",
+    description: "Are we open minded to the idea that we might be close minded? What would it take to find out?",
+    url: "https://www.youtube.com/channel/UCaGAzPm0iExb4I4iq0TCXEw"
+},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "campefire_convos",
+    title: "Campfire Convos",
+    description: "Blending Street Epistemology with the primitive tradition of sitting around a campfire. I sometimes allow Collaborators on Discord the opportunity to ask the questions!",
+    url: "https://www.youtube.com/channel/UCuFOqi7YRgy4HqU-JPNHkZQ"
+},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>{
+    logo: "mortage_hill_musings",
+    title: "Mortgage Hill Musings",
+    description: "Breakdowns of SE interviews / sermons, as well as lectures that highlight critical thinking skills implicit in the scientific method.",
+    url: "https://www.youtube.com/channel/UCQU9GcG93HyDa4oV_TbO9vQ"
+},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>